--- a/biology/Médecine/Adrien_Bondet/Adrien_Bondet.xlsx
+++ b/biology/Médecine/Adrien_Bondet/Adrien_Bondet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adrien Bondet, né le 27 octobre 1830 à Coligny et mort dans cette même commune le 5 juillet 1909 (à 78 ans), est un médecin français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adrien Bondet est externe en 1852, interne de 1853 à 1854 où il se lie d'amitié avec Louis Léopold Ollier. Chef de clinique de 1858 à 1860, médecin à l'Hôtel-Dieu de Lyon de 1860 à 1882 et professeur de clinique à la faculté de médecine de Lyon de 1884 à 1907[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adrien Bondet est externe en 1852, interne de 1853 à 1854 où il se lie d'amitié avec Louis Léopold Ollier. Chef de clinique de 1858 à 1860, médecin à l'Hôtel-Dieu de Lyon de 1860 à 1882 et professeur de clinique à la faculté de médecine de Lyon de 1884 à 1907.
 Il obtient son doctorat en médecine en 1857, enseigne la pathologie interne de 1877 à 1884 et la clinique médicale de 1884 à 1907. Il est l’élève de Bénédict Teissier.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adrien Bondet est fait chevalier de la Légion d'honneur le 29 décembre 1885[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adrien Bondet est fait chevalier de la Légion d'honneur le 29 décembre 1885.
 </t>
         </is>
       </c>
